--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0568750296379153</v>
+        <v>0.0550233421979901</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0337383182317398</v>
+        <v>0.0386455181017222</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0800117410440909</v>
+        <v>0.0714011662942581</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0658175197821603</v>
+        <v>0.0572694933776089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0325694504296743</v>
+        <v>0.0338127770858666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0990655891346463</v>
+        <v>0.0807262096693513</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00576267988031839</v>
+        <v>0.00994252757416171</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.082087153844754</v>
+        <v>-0.0443615343226939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0705617940841172</v>
+        <v>0.0642465894710173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0784294100010161</v>
+        <v>0.0670965655915875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00767823331191618</v>
+        <v>0.0172267698324776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.149180586690116</v>
+        <v>0.116966361350697</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0661461257835909</v>
+        <v>0.081730387743226</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.018052178082355</v>
+        <v>0.0233570508655757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.150344429649537</v>
+        <v>0.140103724620876</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0907367986050813</v>
+        <v>0.0680533176453671</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0102676599094571</v>
+        <v>-0.00248399960860061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19174125711962</v>
+        <v>0.138590634899335</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.129372153576676</v>
+        <v>0.101589522229611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0350395928277162</v>
+        <v>0.0337020950888193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.223704714325636</v>
+        <v>0.169476949370402</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0661579590823563</v>
+        <v>0.0433125623099312</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0162500850223269</v>
+        <v>-0.0150496713843894</v>
       </c>
       <c r="D9" t="n">
-        <v>0.148566003187039</v>
+        <v>0.101674796004252</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.053097572179553</v>
+        <v>-0.0145012916202921</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0625336210876319</v>
+        <v>-0.0907107009404394</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168728765446738</v>
+        <v>0.0617081176998553</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0424052040522828</v>
+        <v>0.0342572971648338</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.00713608997900253</v>
+        <v>-0.000790727879418231</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0919464980835681</v>
+        <v>0.0693053222090859</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0544923746237491</v>
+        <v>0.0618624362599152</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0144800775316272</v>
+        <v>0.0334695354880022</v>
       </c>
       <c r="D12" t="n">
-        <v>0.094504671715871</v>
+        <v>0.0902553370318282</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0550233421979901</v>
+        <v>0.05502334219799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0386455181017222</v>
+        <v>0.0386455181017223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0714011662942581</v>
+        <v>0.0714011662942577</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0572694933776089</v>
+        <v>0.0572694933776091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0338127770858666</v>
+        <v>0.033812777085867</v>
       </c>
       <c r="D3" t="n">
         <v>0.0807262096693513</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00994252757416171</v>
+        <v>0.00994252757416186</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0443615343226939</v>
+        <v>-0.0443615343226938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0642465894710173</v>
+        <v>0.0642465894710176</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0670965655915875</v>
+        <v>0.0670965655915873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0172267698324776</v>
+        <v>0.0172267698324774</v>
       </c>
       <c r="D5" t="n">
         <v>0.116966361350697</v>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.081730387743226</v>
+        <v>0.0817303877432258</v>
       </c>
       <c r="C6" t="n">
         <v>0.0233570508655757</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0680533176453671</v>
+        <v>0.068053317645367</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00248399960860061</v>
+        <v>-0.00248399960860071</v>
       </c>
       <c r="D7" t="n">
         <v>0.138590634899335</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.101589522229611</v>
+        <v>0.10158952222961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0337020950888193</v>
+        <v>0.0337020950888191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.169476949370402</v>
+        <v>0.169476949370401</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0433125623099312</v>
+        <v>0.043312562309931</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0150496713843894</v>
+        <v>-0.0150496713843895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101674796004252</v>
+        <v>0.101674796004251</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0145012916202921</v>
+        <v>-0.0145012916202922</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0907107009404394</v>
+        <v>-0.0907107009404395</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0617081176998553</v>
+        <v>0.0617081176998552</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0342572971648338</v>
+        <v>0.0342572971648341</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000790727879418231</v>
+        <v>-0.000790727879418196</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0693053222090859</v>
+        <v>0.0693053222090864</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,10 +589,10 @@
         <v>0.0618624362599152</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0334695354880022</v>
+        <v>0.0334695354880023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0902553370318282</v>
+        <v>0.0902553370318281</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05502334219799</v>
+        <v>0.0551760287523508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0386455181017223</v>
+        <v>0.0387832854256928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0714011662942577</v>
+        <v>0.0715687720790089</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0572694933776091</v>
+        <v>0.0572694933776088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.033812777085867</v>
+        <v>0.0338127770858666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0807262096693513</v>
+        <v>0.0807262096693511</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00994252757416186</v>
+        <v>0.00994252757416189</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0443615343226938</v>
@@ -467,10 +467,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0670965655915873</v>
+        <v>0.0670965655915874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0172267698324774</v>
+        <v>0.0172267698324775</v>
       </c>
       <c r="D5" t="n">
         <v>0.116966361350697</v>
@@ -487,7 +487,7 @@
         <v>0.0817303877432258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0233570508655757</v>
+        <v>0.0233570508655756</v>
       </c>
       <c r="D6" t="n">
         <v>0.140103724620876</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.068053317645367</v>
+        <v>0.0680533176453674</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00248399960860071</v>
+        <v>-0.00248399960860055</v>
       </c>
       <c r="D7" t="n">
         <v>0.138590634899335</v>
@@ -524,7 +524,7 @@
         <v>0.0337020950888191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.169476949370401</v>
+        <v>0.169476949370402</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.043312562309931</v>
+        <v>0.0433125623099311</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0150496713843895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101674796004251</v>
+        <v>0.101674796004252</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -555,10 +555,10 @@
         <v>-0.0145012916202922</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0907107009404395</v>
+        <v>-0.0907107009404396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0617081176998552</v>
+        <v>0.0617081176998553</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0342572971648341</v>
+        <v>0.0342307930815836</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.000790727879418196</v>
+        <v>-0.000817353665763139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0693053222090864</v>
+        <v>0.0692789398289303</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0618624362599152</v>
+        <v>0.062244897064752</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0334695354880023</v>
+        <v>0.033822594545063</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0902553370318281</v>
+        <v>0.090667199584441</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_unconditional.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0551760287523508</v>
+        <v>0.0551760287523504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0387832854256928</v>
+        <v>0.0387832854256925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0715687720790089</v>
+        <v>0.0715687720790084</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0572694933776088</v>
+        <v>0.0572694933776081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0338127770858666</v>
+        <v>0.0338127770858661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0807262096693511</v>
+        <v>0.0807262096693502</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00994252757416189</v>
+        <v>0.00994252757416169</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0443615343226938</v>
+        <v>-0.044361534322694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0642465894710176</v>
+        <v>0.0642465894710174</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0670965655915874</v>
+        <v>0.0670965655915872</v>
       </c>
       <c r="C5" t="n">
         <v>0.0172267698324775</v>
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0817303877432258</v>
+        <v>0.0817303877432256</v>
       </c>
       <c r="C6" t="n">
         <v>0.0233570508655756</v>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0680533176453674</v>
+        <v>0.0680533176453673</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00248399960860055</v>
+        <v>-0.00248399960860057</v>
       </c>
       <c r="D7" t="n">
         <v>0.138590634899335</v>
@@ -524,7 +524,7 @@
         <v>0.0337020950888191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.169476949370402</v>
+        <v>0.169476949370401</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0433125623099311</v>
+        <v>0.043312562309931</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0150496713843895</v>
@@ -558,7 +558,7 @@
         <v>-0.0907107009404396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0617081176998553</v>
+        <v>0.0617081176998552</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0342307930815836</v>
+        <v>0.0342307930815834</v>
       </c>
       <c r="C11" t="n">
         <v>-0.000817353665763139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0692789398289303</v>
+        <v>0.0692789398289299</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.062244897064752</v>
+        <v>0.0622448970647524</v>
       </c>
       <c r="C12" t="n">
-        <v>0.033822594545063</v>
+        <v>0.0338225945450633</v>
       </c>
       <c r="D12" t="n">
-        <v>0.090667199584441</v>
+        <v>0.0906671995844414</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
